--- a/会鸽业务系统全景图/比赛测试准备数据/比赛测试准备数据.xlsx
+++ b/会鸽业务系统全景图/比赛测试准备数据/比赛测试准备数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="鸽主相关" sheetId="1" r:id="rId1"/>
@@ -1468,10 +1468,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1502,32 +1502,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1542,6 +1519,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1578,31 +1563,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1617,7 +1616,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1625,15 +1624,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1697,7 +1697,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1709,13 +1751,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1727,25 +1769,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1763,19 +1793,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1787,13 +1829,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1806,72 +1872,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1948,11 +1948,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1983,17 +1989,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2013,16 +2013,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2036,164 +2045,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2246,6 +2246,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2612,8 +2613,8 @@
   <sheetPr/>
   <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3682,7 +3683,7 @@
       <c r="D71" s="20">
         <v>1</v>
       </c>
-      <c r="E71" s="25" t="s">
+      <c r="E71" s="26" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3910,10 +3911,10 @@
         <v>132</v>
       </c>
       <c r="D87" s="20"/>
-      <c r="E87" s="40">
+      <c r="E87" s="41">
         <v>42641</v>
       </c>
-      <c r="F87" s="40">
+      <c r="F87" s="41">
         <v>42641</v>
       </c>
     </row>
@@ -4440,10 +4441,10 @@
         <v>132</v>
       </c>
       <c r="D118" s="20"/>
-      <c r="E118" s="40">
+      <c r="E118" s="41">
         <v>42641</v>
       </c>
-      <c r="F118" s="40">
+      <c r="F118" s="41">
         <v>42641</v>
       </c>
     </row>
@@ -4480,7 +4481,7 @@
       <c r="D120" s="20">
         <v>16</v>
       </c>
-      <c r="E120" s="40"/>
+      <c r="E120" s="41"/>
       <c r="F120" s="1"/>
     </row>
     <row r="121" spans="1:6">
@@ -4628,7 +4629,7 @@
       <c r="D128" s="20">
         <v>1</v>
       </c>
-      <c r="E128" s="25">
+      <c r="E128" s="26">
         <v>1</v>
       </c>
       <c r="F128" s="20">
@@ -4664,7 +4665,7 @@
   <sheetPr/>
   <dimension ref="A1:G173"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="B20" sqref="B20:F20"/>
     </sheetView>
   </sheetViews>
@@ -5261,7 +5262,7 @@
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="22" t="s">
         <v>228</v>
       </c>
       <c r="B36" s="20" t="s">
@@ -5520,7 +5521,7 @@
       <c r="E50" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="F50" s="22" t="s">
+      <c r="F50" s="23" t="s">
         <v>264</v>
       </c>
     </row>
@@ -5555,7 +5556,7 @@
       <c r="D52" s="12">
         <v>16</v>
       </c>
-      <c r="E52" s="23">
+      <c r="E52" s="24">
         <v>13908314803</v>
       </c>
       <c r="F52" s="1"/>
@@ -5770,13 +5771,13 @@
       <c r="A67" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="24" t="s">
+      <c r="B67" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
       <c r="G67" t="s">
         <v>298</v>
       </c>
@@ -6238,7 +6239,7 @@
       <c r="D93" s="20">
         <v>1</v>
       </c>
-      <c r="E93" s="25" t="s">
+      <c r="E93" s="26" t="s">
         <v>332</v>
       </c>
       <c r="F93" s="20" t="s">
@@ -6297,13 +6298,13 @@
       <c r="A99" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B99" s="26" t="s">
+      <c r="B99" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="C99" s="26"/>
-      <c r="D99" s="26"/>
-      <c r="E99" s="26"/>
-      <c r="F99" s="26"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
       <c r="G99" t="s">
         <v>298</v>
       </c>
@@ -6637,7 +6638,7 @@
       <c r="D118" s="20">
         <v>1</v>
       </c>
-      <c r="E118" s="25" t="s">
+      <c r="E118" s="26" t="s">
         <v>332</v>
       </c>
       <c r="F118" s="20" t="s">
@@ -6694,13 +6695,13 @@
       <c r="A124" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B124" s="26" t="s">
+      <c r="B124" s="27" t="s">
         <v>359</v>
       </c>
-      <c r="C124" s="26"/>
-      <c r="D124" s="26"/>
-      <c r="E124" s="26"/>
-      <c r="F124" s="26"/>
+      <c r="C124" s="27"/>
+      <c r="D124" s="27"/>
+      <c r="E124" s="27"/>
+      <c r="F124" s="27"/>
       <c r="G124" t="s">
         <v>298</v>
       </c>
@@ -6750,7 +6751,7 @@
       <c r="D127" s="1">
         <v>16</v>
       </c>
-      <c r="E127" s="27" t="s">
+      <c r="E127" s="28" t="s">
         <v>263</v>
       </c>
       <c r="F127" s="1"/>
@@ -6768,7 +6769,7 @@
       <c r="D128" s="1">
         <v>32</v>
       </c>
-      <c r="E128" s="27" t="s">
+      <c r="E128" s="28" t="s">
         <v>267</v>
       </c>
       <c r="F128" s="1"/>
@@ -6822,7 +6823,7 @@
       <c r="D131" s="1">
         <v>16</v>
       </c>
-      <c r="E131" s="23">
+      <c r="E131" s="24">
         <v>13880081234</v>
       </c>
       <c r="F131" s="1"/>
@@ -6956,36 +6957,36 @@
       </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="28"/>
-      <c r="B139" s="28"/>
-      <c r="C139" s="28"/>
-      <c r="D139" s="28"/>
-      <c r="E139" s="29"/>
-      <c r="F139" s="28"/>
+      <c r="A139" s="29"/>
+      <c r="B139" s="29"/>
+      <c r="C139" s="29"/>
+      <c r="D139" s="29"/>
+      <c r="E139" s="30"/>
+      <c r="F139" s="29"/>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B141" s="30" t="s">
+      <c r="B141" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="C141" s="31"/>
-      <c r="D141" s="31"/>
-      <c r="E141" s="31"/>
-      <c r="F141" s="32"/>
+      <c r="C141" s="32"/>
+      <c r="D141" s="32"/>
+      <c r="E141" s="32"/>
+      <c r="F141" s="33"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B142" s="33" t="s">
+      <c r="B142" s="34" t="s">
         <v>380</v>
       </c>
-      <c r="C142" s="34"/>
-      <c r="D142" s="34"/>
-      <c r="E142" s="34"/>
-      <c r="F142" s="35"/>
+      <c r="C142" s="35"/>
+      <c r="D142" s="35"/>
+      <c r="E142" s="35"/>
+      <c r="F142" s="36"/>
       <c r="G142" t="s">
         <v>298</v>
       </c>
@@ -6994,13 +6995,13 @@
       <c r="A143" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B143" s="36" t="s">
+      <c r="B143" s="37" t="s">
         <v>381</v>
       </c>
-      <c r="C143" s="37"/>
-      <c r="D143" s="37"/>
-      <c r="E143" s="37"/>
-      <c r="F143" s="38"/>
+      <c r="C143" s="38"/>
+      <c r="D143" s="38"/>
+      <c r="E143" s="38"/>
+      <c r="F143" s="39"/>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1" t="s">
@@ -7035,7 +7036,7 @@
       <c r="D145" s="1">
         <v>16</v>
       </c>
-      <c r="E145" s="27" t="s">
+      <c r="E145" s="28" t="s">
         <v>256</v>
       </c>
       <c r="F145" s="1"/>
@@ -7119,7 +7120,7 @@
       <c r="D150" s="1">
         <v>16</v>
       </c>
-      <c r="E150" s="27" t="s">
+      <c r="E150" s="28" t="s">
         <v>267</v>
       </c>
       <c r="F150" s="1"/>
@@ -7137,7 +7138,7 @@
       <c r="D151" s="12">
         <v>16</v>
       </c>
-      <c r="E151" s="23"/>
+      <c r="E151" s="24"/>
       <c r="F151" s="1"/>
     </row>
     <row r="152" spans="1:6">
@@ -7279,7 +7280,7 @@
       <c r="D159" s="1">
         <v>16</v>
       </c>
-      <c r="E159" s="27" t="s">
+      <c r="E159" s="28" t="s">
         <v>247</v>
       </c>
       <c r="F159" s="1" t="s">
@@ -7299,7 +7300,7 @@
       <c r="D160" s="1">
         <v>16</v>
       </c>
-      <c r="E160" s="39">
+      <c r="E160" s="40">
         <v>865067022690369</v>
       </c>
       <c r="F160" s="1" t="s">
@@ -7319,7 +7320,7 @@
       <c r="D161" s="1">
         <v>256</v>
       </c>
-      <c r="E161" s="27" t="s">
+      <c r="E161" s="28" t="s">
         <v>227</v>
       </c>
       <c r="F161" s="1"/>
@@ -7475,7 +7476,7 @@
       <c r="D170" s="20">
         <v>1</v>
       </c>
-      <c r="E170" s="25" t="s">
+      <c r="E170" s="26" t="s">
         <v>332</v>
       </c>
       <c r="F170" s="20" t="s">
@@ -7517,12 +7518,12 @@
       </c>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" s="28"/>
-      <c r="B173" s="28"/>
-      <c r="C173" s="28"/>
-      <c r="D173" s="28"/>
-      <c r="E173" s="29"/>
-      <c r="F173" s="28"/>
+      <c r="A173" s="29"/>
+      <c r="B173" s="29"/>
+      <c r="C173" s="29"/>
+      <c r="D173" s="29"/>
+      <c r="E173" s="30"/>
+      <c r="F173" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -7794,7 +7795,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
